--- a/decArgo_doc/decoder_versions/_argo_tools_histo_soft.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_tools_histo_soft.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED07AA1-3E50-48AB-B85C-4B2F2D35379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2664" yWindow="1812" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,13 +140,13 @@
     <t>COriolis Set Qc</t>
   </si>
   <si>
-    <t>Code for nc_set_doxy_qc_to_dm_file</t>
+    <t>Code for nc_set_doxy_qc_to_dm_file (v1.0) and nc_set_ph_qc_in_r_mode (v2.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,6 +300,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -334,6 +352,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,23 +544,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="23.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -547,7 +582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -558,7 +593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -569,7 +604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -580,7 +615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -591,7 +626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -602,7 +637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -613,7 +648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -624,7 +659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -635,7 +670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -646,7 +681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -657,7 +692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -668,7 +703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
